--- a/DOM_Banner/output/dept_banner/Kamaldeep Singh_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Kamaldeep Singh_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Lovely Professional University, Jalandhar 144411, Punjab, India; Lovely Professional University, Jalandhar 144411, Punjab, India; Madhav Institute of Technology &amp; Science, Gwalior 474005, Madhya Pradesh, India; Mangalmay Institute of Engineering &amp; Technology, Gr. Noida 201310, Uttar Pradesh, India</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3208352027</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Experimental investigation and parametric optimization of the hole-circularity and taper angle during laser drilling kevlar-29 fiber composite</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Materials Today: Proceedings</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.matpr.2021.10.155</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.matpr.2021.10.155</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>ICAR- Directorate of Rapeseed Mustard Research, Sewar, Bharatpur, Rajasthan, 21303, India; ICAR- National Institute for Plant Biotechnology, IARI, Pusa Campus, New Delhi, 110012, India; ICAR- National Institute for Plant Biotechnology, IARI, Pusa Campus, New Delhi, 110012, India; ICAR- Directorate of Rapeseed Mustard Research, Sewar, Bharatpur, Rajasthan, 21303, India</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307960182</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Development of genome-specific SSR markers for the identification of introgressed segments of Sinapis alba in the Brassica juncea background</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-10-30</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3 Biotech</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13205-022-03402-0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36325472</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13205-022-03402-0</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293696152</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Sex Differences in All-Cause Inpatient Mortality Risk in Gastric Cancer: Nationwide Inpatient Population-Based Study</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-08-30</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Cureus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Cureus, Inc.</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.7759/cureus.28602</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36185836</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.7759/cureus.28602</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>ICAR-Directorate of Rapeseed Mustard Research, Bharatpur, India; Genetics Division, ICAR—Indian Agricultural Research Institute, New Delhi, India; Genetics Division, ICAR—Indian Agricultural Research Institute, New Delhi, India</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296048963</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Development of de-novo transcriptome assembly and SSRs in allohexaploid Brassica with functional annotations and identification of heat-shock proteins for thermotolerance</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-09-16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Frontiers in Genetics</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fgene.2022.958217</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36186472</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fgene.2022.958217</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Mathematics, Lovely Professional University; Department of Mathematics, Lovely Professional University, Phagwara, India</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4306750634</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Non-Locality Effects on the Propagation of Shear Waves in Piezoelectric/Non-local Micropolar Layered Structure</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Mechanics of Solids</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Pleiades Publishing</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3103/s0025654422050235</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3103/s0025654422050235</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281610209</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of Pharmacognosy and Phytochemistry</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>AkiNik Publications</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.22271/phyto.2022.v11.i3a.14407</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.22271/phyto.2022.v11.i3a.14407</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Mathematics, School of chemical engineering and physical sciences, Lovely Professional University Phagwara, India.; Department of Mathematics, School of chemical engineering and physical sciences, Lovely Professional University Phagwara, India.; Department of Mathematics, GNDEC, Ludhiana, India</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281777606</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Propagation of SH-waves in two layered piezoelectric/fiber-reinforced composite plate</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Journal of Physics: Conference Series</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>IOP Publishing</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1088/1742-6596/2267/1/012126</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1088/1742-6596/2267/1/012126</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1Department of Dermatology, Sardar Patel Medical College, Bikaner, Rajasthan, India; 2Departments of Dermatology, Mittal Hospital, Ajmer, Rajasthan, India; 3Department of Orthopaedics, Dr. Sampurnanand Medical College, Jodhpur, Rajasthan, India; Accepted January 31, 2022; Department of Dermatology, Dr. Sampurnanand Medical College, Jodhpur, Rajasthan, India; Received June 01, 2021; Received in revised form January 25, 2022; This is an open access journal, and articles are distributed under the terms of the Creative Commons Attribution-NonCommercial-ShareAlike 4.0 License, which allows others to remix, tweak, and build upon the work non-commercially, as long as appropriate credit is given and the new creations are licensed under the identical terms.; 1Department of Dermatology, Sardar Patel Medical College, Bikaner, Rajasthan, India; 2Departments of Dermatology, Mittal Hospital, Ajmer, Rajasthan, India; 3Department of Orthopaedics, Dr. Sampurnanand Medical College, Jodhpur, Rajasthan, India; Accepted January 31, 2022; Department of Dermatology, Dr. Sampurnanand Medical College, Jodhpur, Rajasthan, India; Received June 01, 2021; Received in revised form January 25, 2022; This is an open access journal, and articles are distributed under the terms of the Creative Commons Attribution-NonCommercial-ShareAlike 4.0 License, which allows others to remix, tweak, and build upon the work non-commercially, as long as appropriate credit is given and the new creations are licensed under the identical terms.; 1Department of Dermatology, Sardar Patel Medical College, Bikaner, Rajasthan, India; 2Departments of Dermatology, Mittal Hospital, Ajmer, Rajasthan, India; 3Department of Orthopaedics, Dr. Sampurnanand Medical College, Jodhpur, Rajasthan, India; Accepted January 31, 2022; Department of Dermatology, Dr. Sampurnanand Medical College, Jodhpur, Rajasthan, India; Received June 01, 2021; Received in revised form January 25, 2022; This is an open access journal, and articles are distributed under the terms of the Creative Commons Attribution-NonCommercial-ShareAlike 4.0 License, which allows others to remix, tweak, and build upon the work non-commercially, as long as appropriate credit is given and the new creations are licensed under the identical terms.; 1Department of Dermatology, Sardar Patel Medical College, Bikaner, Rajasthan, India; 2Departments of Dermatology, Mittal Hospital, Ajmer, Rajasthan, India; 3Department of Orthopaedics, Dr. Sampurnanand Medical College, Jodhpur, Rajasthan, India; Accepted January 31, 2022; Department of Dermatology, Dr. Sampurnanand Medical College, Jodhpur, Rajasthan, India; Received June 01, 2021; Received in revised form January 25, 2022; This is an open access journal, and articles are distributed under the terms of the Creative Commons Attribution-NonCommercial-ShareAlike 4.0 License, which allows others to remix, tweak, and build upon the work non-commercially, as long as appropriate credit is given and the new creations are licensed under the identical terms.; 1Department of Dermatology, Sardar Patel Medical College, Bikaner, Rajasthan, India; 2Departments of Dermatology, Mittal Hospital, Ajmer, Rajasthan, India; 3Department of Orthopaedics, Dr. Sampurnanand Medical College, Jodhpur, Rajasthan, India; Accepted January 31, 2022; Department of Dermatology, Dr. Sampurnanand Medical College, Jodhpur, Rajasthan, India; Received June 01, 2021; Received in revised form January 25, 2022; This is an open access journal, and articles are distributed under the terms of the Creative Commons Attribution-NonCommercial-ShareAlike 4.0 License, which allows others to remix, tweak, and build upon the work non-commercially, as long as appropriate credit is given and the new creations are licensed under the identical terms.; 1Department of Dermatology, Sardar Patel Medical College, Bikaner, Rajasthan, India; 2Departments of Dermatology, Mittal Hospital, Ajmer, Rajasthan, India; 3Department of Orthopaedics, Dr. Sampurnanand Medical College, Jodhpur, Rajasthan, India; Accepted January 31, 2022; Department of Dermatology, Dr. Sampurnanand Medical College, Jodhpur, Rajasthan, India; Received June 01, 2021; Received in revised form January 25, 2022; This is an open access journal, and articles are distributed under the terms of the Creative Commons Attribution-NonCommercial-ShareAlike 4.0 License, which allows others to remix, tweak, and build upon the work non-commercially, as long as appropriate credit is given and the new creations are licensed under the identical terms.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321319293</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Teledermatology in the era of COVID-19, perspective from a developing country: Are we future-ready?</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Clinical dermatology review</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Medknow</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.4103/cdr.cdr_46_21</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by-nc-sa</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.4103/cdr.cdr_46_21</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
